--- a/simple.xlsx
+++ b/simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10135" uniqueCount="5840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10135" uniqueCount="5884">
   <si>
     <t>Número</t>
   </si>
@@ -16843,697 +16843,829 @@
     <t>File:BA-Ruinas villa romana Pesquero. 19.jpg</t>
   </si>
   <si>
-    <t>Alqueria del Moro</t>
-  </si>
-  <si>
-    <t>Alqueria del Pi d'Alfafar</t>
-  </si>
-  <si>
-    <t>Palacio de Chiloeches, Santoña</t>
-  </si>
-  <si>
-    <t>Church of San Miguel, Sasamón</t>
-  </si>
-  <si>
-    <t>Tower of Valmojado</t>
-  </si>
-  <si>
-    <t>Cabanyal-Canyamelar</t>
-  </si>
-  <si>
-    <t>Capilla de San José (Sevilla)</t>
-  </si>
-  <si>
-    <t>Palacio de los Bernaldo de Quirós, Oviedo</t>
-  </si>
-  <si>
-    <t>Palacio de Guevara</t>
-  </si>
-  <si>
-    <t>Canto del Pico Palace, Torrelodones</t>
-  </si>
-  <si>
-    <t>Casa de la Sirena</t>
-  </si>
-  <si>
-    <t>Petrés Castle</t>
-  </si>
-  <si>
-    <t>Castle of Alba, Losacino</t>
-  </si>
-  <si>
-    <t>Castle of Floripes</t>
-  </si>
-  <si>
-    <t>Castle of Alhambra</t>
-  </si>
-  <si>
-    <t>Castle of Almonacid</t>
-  </si>
-  <si>
-    <t>Almonacid Castle</t>
-  </si>
-  <si>
-    <t>Castle of Anento</t>
-  </si>
-  <si>
-    <t>Castle of Asmesnal</t>
-  </si>
-  <si>
-    <t>Castle of Aulencia</t>
-  </si>
-  <si>
-    <t>Castle of Azuébar</t>
-  </si>
-  <si>
-    <t>Castle of Belmonte (Cuenca)</t>
-  </si>
-  <si>
-    <t>Castle of Belmonte de Campos</t>
-  </si>
-  <si>
-    <t>Castle of Cadrete</t>
-  </si>
-  <si>
-    <t>Castle of Capilla</t>
-  </si>
-  <si>
-    <t>Castle of Caracena</t>
-  </si>
-  <si>
-    <t>Castle of Castrillo de Villavega</t>
-  </si>
-  <si>
-    <t>Castle of Castrotorafe</t>
-  </si>
-  <si>
-    <t>Castillo de Despeñaperros</t>
-  </si>
-  <si>
-    <t>Castle of Fernán Gonzalez, Sepúlveda</t>
-  </si>
-  <si>
-    <t>Castle of Belalcázar</t>
-  </si>
-  <si>
-    <t>Castle of Galve de Sorbe</t>
-  </si>
-  <si>
-    <t>Castle of Giribaile</t>
-  </si>
-  <si>
-    <t>Castell de Granera</t>
-  </si>
-  <si>
-    <t>Castillo de la Asomada</t>
-  </si>
-  <si>
-    <t>Castle of La Raya</t>
-  </si>
-  <si>
-    <t>Castillo de Langa del Castillo</t>
-  </si>
-  <si>
-    <t>Castillo de Guadalerzas, Los Yébenes</t>
-  </si>
-  <si>
-    <t>Castillo de los Bazán, Palacios de la Valduerna</t>
-  </si>
-  <si>
-    <t>Castle of Saldaña</t>
-  </si>
-  <si>
-    <t>Castle of Hornillos de Cerrato</t>
-  </si>
-  <si>
-    <t>Castillo de los Moros (Cartagena)</t>
-  </si>
-  <si>
-    <t>Castle of Maella</t>
-  </si>
-  <si>
-    <t>Castle of Mayoralgo</t>
-  </si>
-  <si>
-    <t>Montalbán Castle</t>
-  </si>
-  <si>
-    <t>Castell de Montornés (Benicàssim)</t>
-  </si>
-  <si>
-    <t>Castle of Mota del Marqués</t>
-  </si>
-  <si>
-    <t>Castle of Orihuela</t>
-  </si>
-  <si>
-    <t>Osma Castle</t>
-  </si>
-  <si>
-    <t>Castle of Pambre</t>
-  </si>
-  <si>
-    <t>Castle of Paradilla del Alcor</t>
-  </si>
-  <si>
-    <t>Castle of Pelegrina</t>
-  </si>
-  <si>
-    <t>Castle of Peñausende</t>
-  </si>
-  <si>
-    <t>Castle of de Juan Manrique de Lara</t>
-  </si>
-  <si>
-    <t>Castle of San Pedro de Latarce</t>
-  </si>
-  <si>
-    <t>Santa Gadea del Cid Castle</t>
-  </si>
-  <si>
-    <t>Castle of Serón de Nágima</t>
-  </si>
-  <si>
-    <t>Castle of Torrejón de Velasco</t>
-  </si>
-  <si>
-    <t>Castle of Torremormojón</t>
-  </si>
-  <si>
-    <t>Castle of Trevejo</t>
-  </si>
-  <si>
-    <t>Castle of Ucero</t>
-  </si>
-  <si>
-    <t>Castell de Vallmoll</t>
-  </si>
-  <si>
-    <t>Castle of Villalba de los Alcores</t>
-  </si>
-  <si>
-    <t>Castell de Vilamarxant</t>
-  </si>
-  <si>
-    <t>Castle of Xiquena</t>
-  </si>
-  <si>
-    <t>Castillo de Argavieso</t>
-  </si>
-  <si>
-    <t>Torre Salvana</t>
-  </si>
-  <si>
-    <t>Castro de La Loma</t>
-  </si>
-  <si>
-    <t>Castro Peña del Hombre (Paradela de Muces)</t>
-  </si>
-  <si>
-    <t>Acinipo</t>
-  </si>
-  <si>
-    <t>Cocheras de Cuatro Caminos</t>
-  </si>
-  <si>
-    <t>Fuertes del Hacho, Ceuta</t>
-  </si>
-  <si>
-    <t>Convent of San Agustín, Madrigal de las Altas Torres</t>
-  </si>
-  <si>
-    <t>Convent of the Trinidad, Cuéllar</t>
-  </si>
-  <si>
-    <t>Ruins of the Monastery of Nuestra Señora de la Hoz</t>
-  </si>
-  <si>
-    <t>Convento de Nuestra Señora del Rosal</t>
-  </si>
-  <si>
-    <t>Convento de San Antonio, Mondéjar</t>
-  </si>
-  <si>
-    <t>Monastery of San Francisco (Burgos)</t>
-  </si>
-  <si>
-    <t>Convento de San Guillén de Castielfabib</t>
-  </si>
-  <si>
-    <t>Convento de las Clarisas de Santa Cruz</t>
-  </si>
-  <si>
-    <t>Church of Santa María de Jesús, Ávila</t>
-  </si>
-  <si>
-    <t>Convento del Desierto, Calanda</t>
-  </si>
-  <si>
-    <t>Cuarteles de Reales Guardias Walonas y Españolas, Aranjuez</t>
-  </si>
-  <si>
-    <t>Forno dos Mouros, Toques</t>
-  </si>
-  <si>
-    <t>Castell de Selma</t>
-  </si>
-  <si>
-    <t>Walls of Ávila</t>
-  </si>
-  <si>
-    <t>Hermitage of Castilleja de Talhara, Benacazón</t>
-  </si>
-  <si>
-    <t>Hermitage of Castarruyo, Sandoval de la Reina</t>
-  </si>
-  <si>
-    <t>Ermita de Guía in Jerez de la Frontera</t>
-  </si>
-  <si>
-    <t>Hermitage of Virgen de la Oliva, Patones</t>
-  </si>
-  <si>
-    <t>Hermitage of Gañarul</t>
-  </si>
-  <si>
-    <t>Hermitage of Nuestra Señora de la Calzada, Brías</t>
-  </si>
-  <si>
-    <t>Ermita de San Ambrosio (Barbate)</t>
-  </si>
-  <si>
-    <t>Hermitage of San Juan de Socueva</t>
-  </si>
-  <si>
-    <t>San Pedro de la Mata, Casalgordo</t>
-  </si>
-  <si>
-    <t>Hermitage of San Pelayo, Perazancas de Ojeda</t>
-  </si>
-  <si>
-    <t>Ermita de Santa Ana, El Toboso</t>
-  </si>
-  <si>
-    <t>Ermita del Calvari de Canet lo Roig</t>
-  </si>
-  <si>
-    <t>Ermita del Santo Cristo (Talaván)</t>
-  </si>
-  <si>
-    <t>Hermitage of San Miguel (Sacramenia)</t>
-  </si>
-  <si>
-    <t>Church of San Miguel Árcangel, San Miguel de Bernuy</t>
-  </si>
-  <si>
-    <t>Hermitages of Mount Miral</t>
-  </si>
-  <si>
-    <t>San Sebastián-Donostia train station</t>
-  </si>
-  <si>
-    <t>Averly</t>
-  </si>
-  <si>
-    <t>Fàbrica de La Ceramo</t>
-  </si>
-  <si>
-    <t>Royal fort of Concepción</t>
-  </si>
-  <si>
-    <t>Fuerte de San Cristobal</t>
-  </si>
-  <si>
-    <t>Fort of Victoria Grande, Melilla</t>
-  </si>
-  <si>
-    <t>Fuerte de la Galea</t>
-  </si>
-  <si>
-    <t>Hospital de San Carlos, Aranjuez</t>
-  </si>
-  <si>
-    <t>Convento de Nuestra Señora de la Consolación, Gotor</t>
-  </si>
-  <si>
-    <t>Iglesia de la Asunción, Villaescusa de Palositos</t>
-  </si>
-  <si>
-    <t>Church of Virgen de los Reyes, Calcena</t>
-  </si>
-  <si>
-    <t>Iglesia de Nuestra Señora del Rosario, Villar de Matacabras</t>
-  </si>
-  <si>
-    <t>Iglesia de San Clemente, Huidobro</t>
-  </si>
-  <si>
-    <t>Church of Saints Cosmas and Damian, Encío</t>
-  </si>
-  <si>
-    <t>Hermitage of San Pelayo and San Isidoro</t>
-  </si>
-  <si>
-    <t>Iglesia de San Juan Bautista (Acín)</t>
-  </si>
-  <si>
-    <t>Church of San Lorenzo, Sahagún</t>
-  </si>
-  <si>
-    <t>Saint Louis churches</t>
-  </si>
-  <si>
-    <t>Church of San Martín in Frómista</t>
-  </si>
-  <si>
-    <t>Church of San Martín, Salamanca</t>
-  </si>
-  <si>
-    <t>Church of San Miguel, San Mamés de Zalima</t>
-  </si>
-  <si>
-    <t>Church of San Miguel de Lillo</t>
-  </si>
-  <si>
-    <t>Church of San Nicolás, Granada</t>
-  </si>
-  <si>
-    <t>Church of San Nicolás (Arévalo)</t>
-  </si>
-  <si>
-    <t>Church of San Pedro, Becerril de Campos</t>
-  </si>
-  <si>
-    <t>Church of San Pedro, Polvoranca</t>
-  </si>
-  <si>
-    <t>Church of San Pedro de Plecín, Alles</t>
-  </si>
-  <si>
-    <t>Church of San Pedro del Olmo</t>
-  </si>
-  <si>
-    <t>Church of Sant Ruf, Lleida</t>
-  </si>
-  <si>
-    <t>Church of San Simón, Brihuega</t>
-  </si>
-  <si>
-    <t>Church of Saint Mary of el Templo, Villalba de los Alcores</t>
-  </si>
-  <si>
-    <t>Església de Sant Jaume de Benicalaf</t>
-  </si>
-  <si>
-    <t>Colegio de los Jesuitas, Huete</t>
-  </si>
-  <si>
-    <t>Church of the Purísima Concepción, Vall de Almonacid</t>
-  </si>
-  <si>
-    <t>Church of Vilarrué</t>
-  </si>
-  <si>
-    <t>Jardín de El Bosque</t>
-  </si>
-  <si>
-    <t>Gardens of Las Vistillas</t>
-  </si>
-  <si>
-    <t>Jardín de Monforte</t>
-  </si>
-  <si>
-    <t>Lynx pardinus</t>
-  </si>
-  <si>
-    <t>Reserva del Regajal-Mar de Ontígola</t>
-  </si>
-  <si>
-    <t>Can Ballot</t>
-  </si>
-  <si>
-    <t>Windmills in Cartagena, Spain</t>
-  </si>
-  <si>
-    <t>Monastery of Nuestra Señora del Risco</t>
-  </si>
-  <si>
-    <t>San Antolín de Bedón</t>
-  </si>
-  <si>
-    <t>Monastery of San Antón, Castrojeriz</t>
-  </si>
-  <si>
-    <t>Monastery of San Bartolomé, Lupiana</t>
-  </si>
-  <si>
-    <t>Monastery of San Ginés de la Jara</t>
-  </si>
-  <si>
-    <t>Monasterio de San Isidro de Loriana, Mérida</t>
-  </si>
-  <si>
-    <t>Monastery of San Jerónimo de Guisando (El Tiemblo)</t>
-  </si>
-  <si>
-    <t>Monastery of San Juan de Montealegre</t>
-  </si>
-  <si>
-    <t>Monastery of San Paio de Abeleda</t>
-  </si>
-  <si>
-    <t>San Pedro de Montes</t>
-  </si>
-  <si>
-    <t>Monastery of San Pelayo Mártir, Oviedo</t>
-  </si>
-  <si>
-    <t>Monastery of San Pelayo (Cevico Navero)</t>
-  </si>
-  <si>
-    <t>Monastery of San Román de Entrepeñas</t>
-  </si>
-  <si>
-    <t>Monastery of San Salvador, Cornellana</t>
-  </si>
-  <si>
-    <t>Monastery of San Salvador del Nogal</t>
-  </si>
-  <si>
-    <t>Monastery of Santa Cruz de Ribas</t>
-  </si>
-  <si>
-    <t>Monastery of Bonaval</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de la Sierra</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de la Vega (Renedo de la Vega)</t>
-  </si>
-  <si>
-    <t>Santa Maria de les Esglésies</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de Monfero</t>
-  </si>
-  <si>
-    <t>Monastery of Monsalud</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de Óvila</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de Palazuelos</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de Rioseco</t>
-  </si>
-  <si>
-    <t>Monastery of Nuestra Señora de los Ángeles de Toloño</t>
-  </si>
-  <si>
-    <t>Santa Maria de Vallverd</t>
-  </si>
-  <si>
-    <t>Monastery of Sopetrán</t>
-  </si>
-  <si>
-    <t>Monastery of Yarte</t>
-  </si>
-  <si>
-    <t>Monastery of La Armedilla, Cogeces de Monte</t>
-  </si>
-  <si>
-    <t>Christian wall of Madrid</t>
-  </si>
-  <si>
-    <t>Palacete de Fuente Higuera</t>
-  </si>
-  <si>
-    <t>Palacete de la calle de Villanueva, Madrid</t>
-  </si>
-  <si>
-    <t>Palace of Cienfuegos de Peñalba</t>
-  </si>
-  <si>
-    <t>Clavería Palace</t>
-  </si>
-  <si>
-    <t>Palacio de la duquesa de Sueca</t>
-  </si>
-  <si>
-    <t>Palace of Acebedo</t>
-  </si>
-  <si>
-    <t>Palacio de los condes de Buendía (Dueñas)</t>
-  </si>
-  <si>
-    <t>Palace of Peñaflor, Écija</t>
-  </si>
-  <si>
-    <t>Palacio de Torremejía, Granátula de Calatrava</t>
-  </si>
-  <si>
-    <t>Castell de Xelva</t>
-  </si>
-  <si>
-    <t>Palacio de Nava, San Cristóbal de La Laguna</t>
-  </si>
-  <si>
-    <t>Palace of Tormaleo</t>
-  </si>
-  <si>
-    <t>Palace of Valsaín</t>
-  </si>
-  <si>
-    <t>Conde Luna Palace</t>
-  </si>
-  <si>
-    <t>Palacio del Infantado o del Condestable, Colindres</t>
-  </si>
-  <si>
-    <t>Marqués de Revilla's Palace, Navares de las Cuevas</t>
-  </si>
-  <si>
-    <t>Mosteiro de San Paio de Diomondi</t>
-  </si>
-  <si>
-    <t>Palacio de los Zúñiga (Curiel de Duero)</t>
-  </si>
-  <si>
-    <t>Doñana National Park</t>
-  </si>
-  <si>
-    <t>Peñalcazar</t>
-  </si>
-  <si>
-    <t>Mosteiro de San Xulián de Moraime</t>
-  </si>
-  <si>
-    <t>Old town hall of Laredo</t>
-  </si>
-  <si>
-    <t>Alcántara Bridge</t>
-  </si>
-  <si>
-    <t>Medina bridge, Arévalo</t>
-  </si>
-  <si>
-    <t>Toro Bridge</t>
-  </si>
-  <si>
-    <t>Mocho Bridge, Ledesma</t>
-  </si>
-  <si>
-    <t>Gate of San Andrés, Villalpando</t>
-  </si>
-  <si>
-    <t>Puerto fluvial, Alar del Rey</t>
-  </si>
-  <si>
-    <t>Museum of the Royal Artillery Factory, La Cavada</t>
-  </si>
-  <si>
-    <t>Royal Monastery of Santa Inés del Valle, Écija</t>
-  </si>
-  <si>
-    <t>Monastery of Santa María de Nogales</t>
-  </si>
-  <si>
-    <t>Atarazanas Reales de Sevilla</t>
-  </si>
-  <si>
-    <t>Recinto amurallado de Calatayud</t>
-  </si>
-  <si>
-    <t>Urdaibai estuary</t>
-  </si>
-  <si>
-    <t>Salines of Imón</t>
-  </si>
-  <si>
-    <t>San Miguel Church, Otal</t>
-  </si>
-  <si>
-    <t>Monasterio de Santa María la Real (Obona)</t>
-  </si>
-  <si>
-    <t>Canònica de Santa Maria del Roure</t>
-  </si>
-  <si>
-    <t>Arte Ederrak antzokia-Teatro Bellas Artes (Donostia-San Sebastián)</t>
-  </si>
-  <si>
-    <t>Castle of Sarria</t>
-  </si>
-  <si>
-    <t>Tower of Bonifaz, Lomana</t>
-  </si>
-  <si>
-    <t>Castle of Caldaloba</t>
-  </si>
-  <si>
-    <t>Tower of Castrobarto de Losa</t>
-  </si>
-  <si>
-    <t>Church of Santa María, Mombuey</t>
-  </si>
-  <si>
-    <t>Iglesia de Santa Marina (Cuéllar)</t>
-  </si>
-  <si>
-    <t>Tower of Lopera</t>
-  </si>
-  <si>
-    <t>Velasco's Tower, Espinosa de los Monteros</t>
-  </si>
-  <si>
-    <t>Castle of Obano, Luna</t>
-  </si>
-  <si>
-    <t>San Andrés Castle</t>
-  </si>
-  <si>
-    <t>Torre del Xiprer</t>
-  </si>
-  <si>
-    <t>Towers of Bores</t>
-  </si>
-  <si>
-    <t>Villa romana de Paterna</t>
-  </si>
-  <si>
-    <t>Yacimiento arqueológico de San Esteban, Murcia</t>
-  </si>
-  <si>
-    <t>Mount Bernorio</t>
-  </si>
-  <si>
-    <t>Monte Cildá</t>
-  </si>
-  <si>
-    <t>Tiermes</t>
+    <t>Category:Acueducto de Albatana</t>
+  </si>
+  <si>
+    <t>Category:Alcázar de Toro</t>
+  </si>
+  <si>
+    <t>Category:Alqueria del Moro</t>
+  </si>
+  <si>
+    <t>Category:Alqueria del Pi d'Alfafar</t>
+  </si>
+  <si>
+    <t>Category:Palacio de Chiloeches, Santoña</t>
+  </si>
+  <si>
+    <t>Category:Church of San Miguel, Sasamón</t>
+  </si>
+  <si>
+    <t>Category:Tower of Valmojado</t>
+  </si>
+  <si>
+    <t>Category:Bahía de Santander</t>
+  </si>
+  <si>
+    <t>Category:Cabanyal-Canyamelar</t>
+  </si>
+  <si>
+    <t>Category:Batería de Cenizas</t>
+  </si>
+  <si>
+    <t>Category:Capilla de San José (Sevilla)</t>
+  </si>
+  <si>
+    <t>Category:Cartuja de Nuestra Señora de las Fuentes</t>
+  </si>
+  <si>
+    <t>Category:Cartuja de Vall de Cristo</t>
+  </si>
+  <si>
+    <t>Category:Palacio de los Bernaldo de Quirós, Oviedo</t>
+  </si>
+  <si>
+    <t>Category:Palacio de Guevara</t>
+  </si>
+  <si>
+    <t>Category:Canto del Pico Palace, Torrelodones</t>
+  </si>
+  <si>
+    <t>Category:Casa de la Sirena</t>
+  </si>
+  <si>
+    <t>Category:Petrés Castle</t>
+  </si>
+  <si>
+    <t>Category:Castle of Alba, Losacino</t>
+  </si>
+  <si>
+    <t>Category:Castle of Floripes</t>
+  </si>
+  <si>
+    <t>Category:Castle of Alhambra</t>
+  </si>
+  <si>
+    <t>Category:Castle of Almonacid</t>
+  </si>
+  <si>
+    <t>Category:Almonacid Castle</t>
+  </si>
+  <si>
+    <t>Category:Castle of Anento</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Añón</t>
+  </si>
+  <si>
+    <t>Category:Castle of Asmesnal</t>
+  </si>
+  <si>
+    <t>Category:Castle of Aulencia</t>
+  </si>
+  <si>
+    <t>Category:Castle of Azuébar</t>
+  </si>
+  <si>
+    <t>Category:Castle of Belmonte (Cuenca)</t>
+  </si>
+  <si>
+    <t>Category:Castle of Belmonte de Campos</t>
+  </si>
+  <si>
+    <t>Category:El Castillo</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Berdejo</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Bijuesca</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Bujaraiza</t>
+  </si>
+  <si>
+    <t>Category:Castle of Cadrete</t>
+  </si>
+  <si>
+    <t>Category:Castle of Capilla</t>
+  </si>
+  <si>
+    <t>Category:Castle of Caracena</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Caracuel</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Casarrubios del Monte</t>
+  </si>
+  <si>
+    <t>Category:Castle of Castrillo de Villavega</t>
+  </si>
+  <si>
+    <t>Category:Castle of Castrotorafe</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Chirel</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Despeñaperros</t>
+  </si>
+  <si>
+    <t>Category:Castle of Fernán Gonzalez, Sepúlveda</t>
+  </si>
+  <si>
+    <t>Category:Castle of Belalcázar</t>
+  </si>
+  <si>
+    <t>Category:Castle of Galve de Sorbe</t>
+  </si>
+  <si>
+    <t>Category:Castle of Giribaile</t>
+  </si>
+  <si>
+    <t>Category:Castell de Granera</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Jarque</t>
+  </si>
+  <si>
+    <t>Category:Castillo de la Asomada</t>
+  </si>
+  <si>
+    <t>Category:Castillo de la Atalaya</t>
+  </si>
+  <si>
+    <t>Category:Castillo de la Peña de Martos</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Puebla de Almenara</t>
+  </si>
+  <si>
+    <t>Category:Castle of La Raya</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Langa del Castillo</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Guadalerzas, Los Yébenes</t>
+  </si>
+  <si>
+    <t>Category:Castillo de los Bazán, Palacios de la Valduerna</t>
+  </si>
+  <si>
+    <t>Category:Castle of Saldaña</t>
+  </si>
+  <si>
+    <t>Category:Castle of Hornillos de Cerrato</t>
+  </si>
+  <si>
+    <t>Category:Castillo de los Moros (Cartagena)</t>
+  </si>
+  <si>
+    <t>Category:Castle of Maella</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Maluenda</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Matrera</t>
+  </si>
+  <si>
+    <t>Category:Castle of Mayoralgo</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Monreal de Ariza</t>
+  </si>
+  <si>
+    <t>Category:Montalbán Castle</t>
+  </si>
+  <si>
+    <t>Category:Castell de Montornés (Benicàssim)</t>
+  </si>
+  <si>
+    <t>Category:Castle of Mota del Marqués</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Oreja</t>
+  </si>
+  <si>
+    <t>Category:Castle of Orihuela</t>
+  </si>
+  <si>
+    <t>Category:Osma Castle</t>
+  </si>
+  <si>
+    <t>Category:Castle of Pambre</t>
+  </si>
+  <si>
+    <t>Category:Castle of Paradilla del Alcor</t>
+  </si>
+  <si>
+    <t>Category:Castle of Pelegrina</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Peñafiel (Zarza la Mayor)</t>
+  </si>
+  <si>
+    <t>Category:Castle of Peñausende</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Rueda de Jalón</t>
+  </si>
+  <si>
+    <t>Category:Castle of de Juan Manrique de Lara</t>
+  </si>
+  <si>
+    <t>Category:Castle of San Pedro de Latarce</t>
+  </si>
+  <si>
+    <t>Category:Santa Gadea del Cid Castle</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Santiago de la Torre</t>
+  </si>
+  <si>
+    <t>Category:Castle of Serón de Nágima</t>
+  </si>
+  <si>
+    <t>Category:Castle of Torrejón de Velasco</t>
+  </si>
+  <si>
+    <t>Category:Castle of Torremormojón</t>
+  </si>
+  <si>
+    <t>Category:Castle of Trevejo</t>
+  </si>
+  <si>
+    <t>Category:Castle of Ucero</t>
+  </si>
+  <si>
+    <t>Category:Castell de Vallmoll</t>
+  </si>
+  <si>
+    <t>Category:Castle of Villalba de los Alcores</t>
+  </si>
+  <si>
+    <t>Category:Castell de Vilamarxant</t>
+  </si>
+  <si>
+    <t>Category:Castle of Xiquena</t>
+  </si>
+  <si>
+    <t>Category:Castillo de Argavieso</t>
+  </si>
+  <si>
+    <t>Category:Torre Salvana</t>
+  </si>
+  <si>
+    <t>Category:Castro de La Loma</t>
+  </si>
+  <si>
+    <t>Category:Castro Peña del Hombre (Paradela de Muces)</t>
+  </si>
+  <si>
+    <t>Category:Acinipo</t>
+  </si>
+  <si>
+    <t>Category:Cocheras de Cuatro Caminos</t>
+  </si>
+  <si>
+    <t>Category:Uclés</t>
+  </si>
+  <si>
+    <t>Category:Fuertes del Hacho, Ceuta</t>
+  </si>
+  <si>
+    <t>Category:Convent of San Agustín, Madrigal de las Altas Torres</t>
+  </si>
+  <si>
+    <t>Category:Convent of the Trinidad, Cuéllar</t>
+  </si>
+  <si>
+    <t>Category:Ruins of the Monastery of Nuestra Señora de la Hoz</t>
+  </si>
+  <si>
+    <t>Category:Convento de Nuestra Señora del Rosal</t>
+  </si>
+  <si>
+    <t>Category:Convento de San Antonio, Mondéjar</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Francisco (Burgos)</t>
+  </si>
+  <si>
+    <t>Category:Convento de San Guillén de Castielfabib</t>
+  </si>
+  <si>
+    <t>Category:Convento de las Clarisas de Santa Cruz</t>
+  </si>
+  <si>
+    <t>Category:Church of Santa María de Jesús, Ávila</t>
+  </si>
+  <si>
+    <t>Category:Convento del Desierto, Calanda</t>
+  </si>
+  <si>
+    <t>Category:Convento de la Santa Cruz (Villaescusa de Haro)</t>
+  </si>
+  <si>
+    <t>Category:Cristo del Otero</t>
+  </si>
+  <si>
+    <t>Category:Cuarteles de Reales Guardias Walonas y Españolas, Aranjuez</t>
+  </si>
+  <si>
+    <t>Category:Forno dos Mouros, Toques</t>
+  </si>
+  <si>
+    <t>Category:Castell de Selma</t>
+  </si>
+  <si>
+    <t>Category:Walls of Ávila</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of Castilleja de Talhara, Benacazón</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of Castarruyo, Sandoval de la Reina</t>
+  </si>
+  <si>
+    <t>Category:Ermita de Guía in Jerez de la Frontera</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of Virgen de la Oliva, Patones</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of Gañarul</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of Nuestra Señora de la Calzada, Brías</t>
+  </si>
+  <si>
+    <t>Category:Ermita de San Ambrosio (Barbate)</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of San Juan de Socueva</t>
+  </si>
+  <si>
+    <t>Category:San Pedro de la Mata, Casalgordo</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of San Pelayo, Perazancas de Ojeda</t>
+  </si>
+  <si>
+    <t>Category:Ermita de Santa Ana, El Toboso</t>
+  </si>
+  <si>
+    <t>Category:Ermita del Calvari de Canet lo Roig</t>
+  </si>
+  <si>
+    <t>Category:Ermita del Santo Cristo (Talaván)</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of San Miguel (Sacramenia)</t>
+  </si>
+  <si>
+    <t>Category:Church of San Miguel Árcangel, San Miguel de Bernuy</t>
+  </si>
+  <si>
+    <t>Category:Hermitages of Mount Miral</t>
+  </si>
+  <si>
+    <t>Category:Escuela de Artes y Oficios de Algeciras</t>
+  </si>
+  <si>
+    <t>Category:San Sebastián-Donostia train station</t>
+  </si>
+  <si>
+    <t>Category:Averly</t>
+  </si>
+  <si>
+    <t>Category:Fàbrica de La Ceramo</t>
+  </si>
+  <si>
+    <t>Category:Frontón Beti Jai</t>
+  </si>
+  <si>
+    <t>Category:Royal fort of Concepción</t>
+  </si>
+  <si>
+    <t>Category:Fuerte de San Cristobal</t>
+  </si>
+  <si>
+    <t>Category:Fort of Victoria Grande, Melilla</t>
+  </si>
+  <si>
+    <t>Category:Fuerte de la Galea</t>
+  </si>
+  <si>
+    <t>Category:Hospital de San Carlos, Aranjuez</t>
+  </si>
+  <si>
+    <t>Category:Convento de Nuestra Señora de la Consolación, Gotor</t>
+  </si>
+  <si>
+    <t>Category:Iglesia de la Asunción, Villaescusa de Palositos</t>
+  </si>
+  <si>
+    <t>Category:Church of Virgen de los Reyes, Calcena</t>
+  </si>
+  <si>
+    <t>Category:Iglesia de Nuestra Señora del Rosario, Villar de Matacabras</t>
+  </si>
+  <si>
+    <t>Category:Iglesia de San Clemente, Huidobro</t>
+  </si>
+  <si>
+    <t>Category:Church of Saints Cosmas and Damian, Encío</t>
+  </si>
+  <si>
+    <t>Category:Hermitage of San Pelayo and San Isidoro</t>
+  </si>
+  <si>
+    <t>Category:Iglesia de San Juan Bautista (Acín)</t>
+  </si>
+  <si>
+    <t>Category:Church of San Lorenzo, Sahagún</t>
+  </si>
+  <si>
+    <t>Category:Saint Louis churches</t>
+  </si>
+  <si>
+    <t>Category:Church of San Martín in Frómista</t>
+  </si>
+  <si>
+    <t>Category:Church of San Martín, Salamanca</t>
+  </si>
+  <si>
+    <t>Category:Church of San Miguel, San Mamés de Zalima</t>
+  </si>
+  <si>
+    <t>Category:Church of San Miguel de Lillo</t>
+  </si>
+  <si>
+    <t>Category:Church of San Nicolás, Granada</t>
+  </si>
+  <si>
+    <t>Category:Church of San Nicolás (Arévalo)</t>
+  </si>
+  <si>
+    <t>Category:Church of San Pedro, Becerril de Campos</t>
+  </si>
+  <si>
+    <t>Category:Church of San Pedro, Polvoranca</t>
+  </si>
+  <si>
+    <t>Category:Church of San Pedro de Plecín, Alles</t>
+  </si>
+  <si>
+    <t>Category:Church of San Pedro del Olmo</t>
+  </si>
+  <si>
+    <t>Category:Church of Sant Ruf, Lleida</t>
+  </si>
+  <si>
+    <t>Category:Church of San Simón, Brihuega</t>
+  </si>
+  <si>
+    <t>Category:Church of Saint Mary of el Templo, Villalba de los Alcores</t>
+  </si>
+  <si>
+    <t>Category:Església de Sant Jaume de Benicalaf</t>
+  </si>
+  <si>
+    <t>Category:Colegio de los Jesuitas, Huete</t>
+  </si>
+  <si>
+    <t>Category:Iglesia de San Martín del Casuar</t>
+  </si>
+  <si>
+    <t>Category:Church of the Purísima Concepción, Vall de Almonacid</t>
+  </si>
+  <si>
+    <t>Category:Church of Vilarrué</t>
+  </si>
+  <si>
+    <t>Category:Jardín de El Bosque</t>
+  </si>
+  <si>
+    <t>Category:Gardens of Las Vistillas</t>
+  </si>
+  <si>
+    <t>Category:Jardín de Monforte</t>
+  </si>
+  <si>
+    <t>Category:Lynx pardinus</t>
+  </si>
+  <si>
+    <t>Category:Reserva del Regajal-Mar de Ontígola</t>
+  </si>
+  <si>
+    <t>Category:Can Ballot</t>
+  </si>
+  <si>
+    <t>Category:Windmills in Cartagena, Spain</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Nuestra Señora del Risco</t>
+  </si>
+  <si>
+    <t>Category:San Antolín de Bedón</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Antón, Castrojeriz</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Bartolomé, Lupiana</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Ginés de la Jara</t>
+  </si>
+  <si>
+    <t>Category:Monasterio de San Isidro de Loriana, Mérida</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Jerónimo de Guisando (El Tiemblo)</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Juan de Montealegre</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Paio de Abeleda</t>
+  </si>
+  <si>
+    <t>Category:San Pedro de Montes</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Pelayo Mártir, Oviedo</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Pelayo (Cevico Navero)</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Román de Entrepeñas</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Salvador, Cornellana</t>
+  </si>
+  <si>
+    <t>Category:Monastery of San Salvador del Nogal</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa Cruz de Ribas</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Bonaval</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de la Sierra</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de la Vega (Renedo de la Vega)</t>
+  </si>
+  <si>
+    <t>Category:Santa Maria de les Esglésies</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de Monfero</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Monsalud</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de Óvila</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de Palazuelos</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de Rioseco</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Nuestra Señora de los Ángeles de Toloño</t>
+  </si>
+  <si>
+    <t>Category:Santa Maria de Vallverd</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Sopetrán</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Yarte</t>
+  </si>
+  <si>
+    <t>Category:Monastery of La Armedilla, Cogeces de Monte</t>
+  </si>
+  <si>
+    <t>Category:Christian wall of Madrid</t>
+  </si>
+  <si>
+    <t>Category:Oratorio rupestre de Valdecanales</t>
+  </si>
+  <si>
+    <t>Category:Palacete de Fuente Higuera</t>
+  </si>
+  <si>
+    <t>Category:Palacete de la calle de Villanueva, Madrid</t>
+  </si>
+  <si>
+    <t>Category:Casa de Arizón</t>
+  </si>
+  <si>
+    <t>Category:Palace of Cienfuegos de Peñalba</t>
+  </si>
+  <si>
+    <t>Category:Clavería Palace</t>
+  </si>
+  <si>
+    <t>Category:Palacio de Inestrillas</t>
+  </si>
+  <si>
+    <t>Category:Palacio de la duquesa de Sueca</t>
+  </si>
+  <si>
+    <t>Category:Palace of Acebedo</t>
+  </si>
+  <si>
+    <t>Category:Palacio de los condes de Buendía (Dueñas)</t>
+  </si>
+  <si>
+    <t>Category:Palacio de los Gosálvez</t>
+  </si>
+  <si>
+    <t>Category:Palace of Peñaflor, Écija</t>
+  </si>
+  <si>
+    <t>Category:Palacio de Torremejía, Granátula de Calatrava</t>
+  </si>
+  <si>
+    <t>Category:Castell de Xelva</t>
+  </si>
+  <si>
+    <t>Category:Palacio de Nava, San Cristóbal de La Laguna</t>
+  </si>
+  <si>
+    <t>Category:Palace of Tormaleo</t>
+  </si>
+  <si>
+    <t>Category:Palace of Valsaín</t>
+  </si>
+  <si>
+    <t>Category:Conde Luna Palace</t>
+  </si>
+  <si>
+    <t>Category:Marqués de Revilla's Palace, Navares de las Cuevas</t>
+  </si>
+  <si>
+    <t>Category:Guenduláin</t>
+  </si>
+  <si>
+    <t>Category:Mosteiro de San Paio de Diomondi</t>
+  </si>
+  <si>
+    <t>Category:Palacio de los Zúñiga (Curiel de Duero)</t>
+  </si>
+  <si>
+    <t>Category:Doñana National Park</t>
+  </si>
+  <si>
+    <t>Category:Peñalcazar</t>
+  </si>
+  <si>
+    <t>Category:Mosteiro de San Xulián de Moraime</t>
+  </si>
+  <si>
+    <t>Category:Old town hall of Laredo</t>
+  </si>
+  <si>
+    <t>Category:Alcántara Bridge</t>
+  </si>
+  <si>
+    <t>Category:Puente de Cantillana</t>
+  </si>
+  <si>
+    <t>Category:Medina bridge, Arévalo</t>
+  </si>
+  <si>
+    <t>Category:Toro Bridge</t>
+  </si>
+  <si>
+    <t>Category:Mocho Bridge, Ledesma</t>
+  </si>
+  <si>
+    <t>Category:Gate of San Andrés, Villalpando</t>
+  </si>
+  <si>
+    <t>Category:Puerto fluvial, Alar del Rey</t>
+  </si>
+  <si>
+    <t>Category:Real Canal de Manzanares</t>
+  </si>
+  <si>
+    <t>Category:Real Fábrica de Armas de Orbaiceta</t>
+  </si>
+  <si>
+    <t>Category:Museum of the Royal Artillery Factory, La Cavada</t>
+  </si>
+  <si>
+    <t>Category:Royal Monastery of Santa Inés del Valle, Écija</t>
+  </si>
+  <si>
+    <t>Category:Monastery of Santa María de Nogales</t>
+  </si>
+  <si>
+    <t>Category:Atarazanas Reales de Sevilla</t>
+  </si>
+  <si>
+    <t>Category:Recinto amurallado de Calatayud</t>
+  </si>
+  <si>
+    <t>Category:Urdaibai estuary</t>
+  </si>
+  <si>
+    <t>Category:Salines of Imón</t>
+  </si>
+  <si>
+    <t>Category:San Miguel Church, Otal</t>
+  </si>
+  <si>
+    <t>Category:Monasterio de Santa María la Real (Obona)</t>
+  </si>
+  <si>
+    <t>Category:Canònica de Santa Maria del Roure</t>
+  </si>
+  <si>
+    <t>Category:Arte Ederrak antzokia-Teatro Bellas Artes (Donostia-San Sebastián)</t>
+  </si>
+  <si>
+    <t>Category:Castle of Sarria</t>
+  </si>
+  <si>
+    <t>Category:Tower of Bonifaz, Lomana</t>
+  </si>
+  <si>
+    <t>Category:Castle of Caldaloba</t>
+  </si>
+  <si>
+    <t>Category:Tower of Castrobarto de Losa</t>
+  </si>
+  <si>
+    <t>Category:Torre de Hércules</t>
+  </si>
+  <si>
+    <t>Category:Church of Santa María, Mombuey</t>
+  </si>
+  <si>
+    <t>Category:Iglesia de Santa Marina (Cuéllar)</t>
+  </si>
+  <si>
+    <t>Category:Tower of Lopera</t>
+  </si>
+  <si>
+    <t>Category:Velasco's Tower, Espinosa de los Monteros</t>
+  </si>
+  <si>
+    <t>Category:Torre de Navidad</t>
+  </si>
+  <si>
+    <t>Category:Castle of Obano, Luna</t>
+  </si>
+  <si>
+    <t>Category:San Andrés Castle</t>
+  </si>
+  <si>
+    <t>Category:Torre del Xiprer</t>
+  </si>
+  <si>
+    <t>Category:Torreón de Lodeña</t>
+  </si>
+  <si>
+    <t>Category:Towers of Bores</t>
+  </si>
+  <si>
+    <t>Category:Valle de los Caídos</t>
+  </si>
+  <si>
+    <t>Category:Venta de Borondo</t>
+  </si>
+  <si>
+    <t>Category:Villa Calamari</t>
+  </si>
+  <si>
+    <t>Category:Villa romana de Paterna</t>
+  </si>
+  <si>
+    <t>Category:Yacimiento arqueológico de San Esteban, Murcia</t>
+  </si>
+  <si>
+    <t>Category:Mount Bernorio</t>
+  </si>
+  <si>
+    <t>Category:Monte Cildá</t>
+  </si>
+  <si>
+    <t>Category:Tiermes</t>
   </si>
 </sst>
 </file>
@@ -18031,7 +18163,7 @@
         <v>5468</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -18131,7 +18263,7 @@
         <v>4721</v>
       </c>
       <c r="X4" t="s">
-        <v>25</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -18363,7 +18495,7 @@
         <v>4726</v>
       </c>
       <c r="X9" t="s">
-        <v>5609</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -18410,7 +18542,7 @@
         <v>4727</v>
       </c>
       <c r="X10" t="s">
-        <v>5610</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -18548,7 +18680,7 @@
         <v>4730</v>
       </c>
       <c r="X13" t="s">
-        <v>5611</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -18595,7 +18727,7 @@
         <v>4731</v>
       </c>
       <c r="X14" t="s">
-        <v>5612</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -18845,7 +18977,7 @@
         <v>5468</v>
       </c>
       <c r="X19" t="s">
-        <v>5613</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -18945,7 +19077,7 @@
         <v>5468</v>
       </c>
       <c r="X21" t="s">
-        <v>42</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -19086,7 +19218,7 @@
         <v>5469</v>
       </c>
       <c r="X24" t="s">
-        <v>5614</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -19274,7 +19406,7 @@
         <v>4745</v>
       </c>
       <c r="X28" t="s">
-        <v>49</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -19732,7 +19864,7 @@
         <v>5469</v>
       </c>
       <c r="X38" t="s">
-        <v>5615</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -19926,7 +20058,7 @@
         <v>4759</v>
       </c>
       <c r="X42" t="s">
-        <v>63</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -20035,7 +20167,7 @@
         <v>5468</v>
       </c>
       <c r="X44" t="s">
-        <v>751</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -20435,7 +20567,7 @@
         <v>5468</v>
       </c>
       <c r="X52" t="s">
-        <v>5616</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -20567,7 +20699,7 @@
         <v>4772</v>
       </c>
       <c r="X55" t="s">
-        <v>5617</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -21219,7 +21351,7 @@
         <v>5468</v>
       </c>
       <c r="X69" t="s">
-        <v>5618</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -21366,7 +21498,7 @@
         <v>5469</v>
       </c>
       <c r="X72" t="s">
-        <v>5619</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -21598,7 +21730,7 @@
         <v>4794</v>
       </c>
       <c r="X77" t="s">
-        <v>5620</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -22100,7 +22232,7 @@
         <v>5468</v>
       </c>
       <c r="X88" t="s">
-        <v>5621</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -22147,7 +22279,7 @@
         <v>4806</v>
       </c>
       <c r="X89" t="s">
-        <v>5622</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -22197,7 +22329,7 @@
         <v>5468</v>
       </c>
       <c r="X90" t="s">
-        <v>5623</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -22250,7 +22382,7 @@
         <v>5468</v>
       </c>
       <c r="X91" t="s">
-        <v>5624</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -22306,7 +22438,7 @@
         <v>5468</v>
       </c>
       <c r="X92" t="s">
-        <v>5625</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -22412,7 +22544,7 @@
         <v>5468</v>
       </c>
       <c r="X94" t="s">
-        <v>5626</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -22462,7 +22594,7 @@
         <v>4812</v>
       </c>
       <c r="X95" t="s">
-        <v>116</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -22509,7 +22641,7 @@
         <v>4813</v>
       </c>
       <c r="X96" t="s">
-        <v>5627</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -22553,7 +22685,7 @@
         <v>4814</v>
       </c>
       <c r="X97" t="s">
-        <v>5628</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -22653,7 +22785,7 @@
         <v>5468</v>
       </c>
       <c r="X99" t="s">
-        <v>5629</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -22759,7 +22891,7 @@
         <v>5468</v>
       </c>
       <c r="X101" t="s">
-        <v>5630</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -22812,7 +22944,7 @@
         <v>5468</v>
       </c>
       <c r="X102" t="s">
-        <v>5631</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -22868,7 +23000,7 @@
         <v>5469</v>
       </c>
       <c r="X103" t="s">
-        <v>2724</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -23015,7 +23147,7 @@
         <v>5468</v>
       </c>
       <c r="X106" t="s">
-        <v>127</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -23068,7 +23200,7 @@
         <v>5468</v>
       </c>
       <c r="X107" t="s">
-        <v>128</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -23112,7 +23244,7 @@
         <v>4825</v>
       </c>
       <c r="X108" t="s">
-        <v>129</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -23168,7 +23300,7 @@
         <v>5468</v>
       </c>
       <c r="X109" t="s">
-        <v>5632</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -23215,7 +23347,7 @@
         <v>4827</v>
       </c>
       <c r="X110" t="s">
-        <v>5633</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -23268,7 +23400,7 @@
         <v>5468</v>
       </c>
       <c r="X111" t="s">
-        <v>5634</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -23318,7 +23450,7 @@
         <v>5468</v>
       </c>
       <c r="X112" t="s">
-        <v>133</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -23365,7 +23497,7 @@
         <v>4830</v>
       </c>
       <c r="X113" t="s">
-        <v>134</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -23509,7 +23641,7 @@
         <v>5468</v>
       </c>
       <c r="X116" t="s">
-        <v>5635</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -23565,7 +23697,7 @@
         <v>5468</v>
       </c>
       <c r="X117" t="s">
-        <v>5636</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -23859,7 +23991,7 @@
         <v>5468</v>
       </c>
       <c r="X123" t="s">
-        <v>144</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -23906,7 +24038,7 @@
         <v>4841</v>
       </c>
       <c r="X124" t="s">
-        <v>5637</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -23997,7 +24129,7 @@
         <v>4843</v>
       </c>
       <c r="X126" t="s">
-        <v>5638</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -24050,7 +24182,7 @@
         <v>5468</v>
       </c>
       <c r="X127" t="s">
-        <v>5639</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -24103,7 +24235,7 @@
         <v>5468</v>
       </c>
       <c r="X128" t="s">
-        <v>5640</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -24156,7 +24288,7 @@
         <v>5468</v>
       </c>
       <c r="X129" t="s">
-        <v>5641</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -24209,7 +24341,7 @@
         <v>5468</v>
       </c>
       <c r="X130" t="s">
-        <v>5642</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -24359,7 +24491,7 @@
         <v>5468</v>
       </c>
       <c r="X133" t="s">
-        <v>154</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -24494,7 +24626,7 @@
         <v>4853</v>
       </c>
       <c r="X136" t="s">
-        <v>5643</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -24541,7 +24673,7 @@
         <v>4854</v>
       </c>
       <c r="X137" t="s">
-        <v>158</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -24779,7 +24911,7 @@
         <v>4859</v>
       </c>
       <c r="X142" t="s">
-        <v>163</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -24832,7 +24964,7 @@
         <v>5468</v>
       </c>
       <c r="X143" t="s">
-        <v>765</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -24885,7 +25017,7 @@
         <v>5468</v>
       </c>
       <c r="X144" t="s">
-        <v>5644</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -25035,7 +25167,7 @@
         <v>5468</v>
       </c>
       <c r="X147" t="s">
-        <v>5645</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -25082,7 +25214,7 @@
         <v>4865</v>
       </c>
       <c r="X148" t="s">
-        <v>5646</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -25129,7 +25261,7 @@
         <v>4866</v>
       </c>
       <c r="X149" t="s">
-        <v>5647</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -25182,7 +25314,7 @@
         <v>5468</v>
       </c>
       <c r="X150" t="s">
-        <v>5648</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -25235,7 +25367,7 @@
         <v>5468</v>
       </c>
       <c r="X151" t="s">
-        <v>5649</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -25282,7 +25414,7 @@
         <v>4869</v>
       </c>
       <c r="X152" t="s">
-        <v>5650</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -25335,7 +25467,7 @@
         <v>5468</v>
       </c>
       <c r="X153" t="s">
-        <v>5651</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -25388,7 +25520,7 @@
         <v>5468</v>
       </c>
       <c r="X154" t="s">
-        <v>175</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -25435,7 +25567,7 @@
         <v>4872</v>
       </c>
       <c r="X155" t="s">
-        <v>176</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -25479,7 +25611,7 @@
         <v>4873</v>
       </c>
       <c r="X156" t="s">
-        <v>5652</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -25629,7 +25761,7 @@
         <v>5468</v>
       </c>
       <c r="X159" t="s">
-        <v>768</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -25676,7 +25808,7 @@
         <v>4877</v>
       </c>
       <c r="X160" t="s">
-        <v>5653</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -25782,7 +25914,7 @@
         <v>5468</v>
       </c>
       <c r="X162" t="s">
-        <v>5654</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -25838,7 +25970,7 @@
         <v>5468</v>
       </c>
       <c r="X163" t="s">
-        <v>5655</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -25888,7 +26020,7 @@
         <v>4881</v>
       </c>
       <c r="X164" t="s">
-        <v>185</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -25941,7 +26073,7 @@
         <v>5468</v>
       </c>
       <c r="X165" t="s">
-        <v>5656</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -25991,7 +26123,7 @@
         <v>4883</v>
       </c>
       <c r="X166" t="s">
-        <v>5657</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -26085,7 +26217,7 @@
         <v>4885</v>
       </c>
       <c r="X168" t="s">
-        <v>5658</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -26135,7 +26267,7 @@
         <v>4886</v>
       </c>
       <c r="X169" t="s">
-        <v>5659</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -26191,7 +26323,7 @@
         <v>5468</v>
       </c>
       <c r="X170" t="s">
-        <v>5660</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -26244,7 +26376,7 @@
         <v>5468</v>
       </c>
       <c r="X171" t="s">
-        <v>769</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -26291,7 +26423,7 @@
         <v>4889</v>
       </c>
       <c r="X172" t="s">
-        <v>5661</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -26344,7 +26476,7 @@
         <v>5468</v>
       </c>
       <c r="X173" t="s">
-        <v>194</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -26482,7 +26614,7 @@
         <v>4893</v>
       </c>
       <c r="X176" t="s">
-        <v>5662</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -26538,7 +26670,7 @@
         <v>5468</v>
       </c>
       <c r="X177" t="s">
-        <v>5663</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -26632,7 +26764,7 @@
         <v>4896</v>
       </c>
       <c r="X179" t="s">
-        <v>5664</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -26729,7 +26861,7 @@
         <v>4898</v>
       </c>
       <c r="X181" t="s">
-        <v>202</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -26832,7 +26964,7 @@
         <v>5468</v>
       </c>
       <c r="X183" t="s">
-        <v>5665</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -26979,7 +27111,7 @@
         <v>5468</v>
       </c>
       <c r="X186" t="s">
-        <v>5666</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -27032,7 +27164,7 @@
         <v>5468</v>
       </c>
       <c r="X187" t="s">
-        <v>5667</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -27135,7 +27267,7 @@
         <v>4906</v>
       </c>
       <c r="X189" t="s">
-        <v>5668</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -27185,7 +27317,7 @@
         <v>4907</v>
       </c>
       <c r="X190" t="s">
-        <v>5669</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -27235,7 +27367,7 @@
         <v>4908</v>
       </c>
       <c r="X191" t="s">
-        <v>5670</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -27335,7 +27467,7 @@
         <v>4910</v>
       </c>
       <c r="X193" t="s">
-        <v>5671</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -27426,7 +27558,7 @@
         <v>4912</v>
       </c>
       <c r="X195" t="s">
-        <v>5672</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -27629,7 +27761,7 @@
         <v>5468</v>
       </c>
       <c r="X199" t="s">
-        <v>5673</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -27726,7 +27858,7 @@
         <v>5468</v>
       </c>
       <c r="X201" t="s">
-        <v>5674</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -27917,7 +28049,7 @@
         <v>4922</v>
       </c>
       <c r="X205" t="s">
-        <v>5675</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -27970,7 +28102,7 @@
         <v>5468</v>
       </c>
       <c r="X206" t="s">
-        <v>5676</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -28023,7 +28155,7 @@
         <v>5469</v>
       </c>
       <c r="X207" t="s">
-        <v>5677</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -28199,7 +28331,7 @@
         <v>4928</v>
       </c>
       <c r="X211" t="s">
-        <v>5678</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -28246,7 +28378,7 @@
         <v>4929</v>
       </c>
       <c r="X212" t="s">
-        <v>5679</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -28672,7 +28804,7 @@
         <v>5469</v>
       </c>
       <c r="X221" t="s">
-        <v>3133</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -28775,7 +28907,7 @@
         <v>5536</v>
       </c>
       <c r="X223" t="s">
-        <v>5680</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -28831,7 +28963,7 @@
         <v>5468</v>
       </c>
       <c r="X224" t="s">
-        <v>5681</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -29060,7 +29192,7 @@
         <v>4946</v>
       </c>
       <c r="X229" t="s">
-        <v>5682</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="230" spans="1:24">
@@ -29295,7 +29427,7 @@
         <v>5468</v>
       </c>
       <c r="X234" t="s">
-        <v>5683</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -29342,7 +29474,7 @@
         <v>4952</v>
       </c>
       <c r="X235" t="s">
-        <v>5684</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -29536,7 +29668,7 @@
         <v>4956</v>
       </c>
       <c r="X239" t="s">
-        <v>5685</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -29674,7 +29806,7 @@
         <v>5469</v>
       </c>
       <c r="X242" t="s">
-        <v>5686</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -29771,7 +29903,7 @@
         <v>5468</v>
       </c>
       <c r="X244" t="s">
-        <v>5687</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -30053,7 +30185,7 @@
         <v>5469</v>
       </c>
       <c r="X250" t="s">
-        <v>5688</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="251" spans="1:24">
@@ -30106,7 +30238,7 @@
         <v>5468</v>
       </c>
       <c r="X251" t="s">
-        <v>5689</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="252" spans="1:24">
@@ -30350,7 +30482,7 @@
         <v>5468</v>
       </c>
       <c r="X256" t="s">
-        <v>5690</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="257" spans="1:24">
@@ -30406,7 +30538,7 @@
         <v>5468</v>
       </c>
       <c r="X257" t="s">
-        <v>784</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="258" spans="1:24">
@@ -30685,7 +30817,7 @@
         <v>4980</v>
       </c>
       <c r="X263" t="s">
-        <v>283</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -30788,7 +30920,7 @@
         <v>4982</v>
       </c>
       <c r="X265" t="s">
-        <v>5691</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -31023,7 +31155,7 @@
         <v>4987</v>
       </c>
       <c r="X270" t="s">
-        <v>5692</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="271" spans="1:24">
@@ -31167,7 +31299,7 @@
         <v>4990</v>
       </c>
       <c r="X273" t="s">
-        <v>5693</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="274" spans="1:24">
@@ -31264,7 +31396,7 @@
         <v>4992</v>
       </c>
       <c r="X275" t="s">
-        <v>5694</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="276" spans="1:24">
@@ -31323,7 +31455,7 @@
         <v>5468</v>
       </c>
       <c r="X276" t="s">
-        <v>5695</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="277" spans="1:24">
@@ -31382,7 +31514,7 @@
         <v>5468</v>
       </c>
       <c r="X277" t="s">
-        <v>5696</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -31441,7 +31573,7 @@
         <v>5468</v>
       </c>
       <c r="X278" t="s">
-        <v>5697</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="279" spans="1:24">
@@ -31638,7 +31770,7 @@
         <v>5468</v>
       </c>
       <c r="X282" t="s">
-        <v>5698</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="283" spans="1:24">
@@ -31779,7 +31911,7 @@
         <v>5468</v>
       </c>
       <c r="X285" t="s">
-        <v>5699</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="286" spans="1:24">
@@ -31829,7 +31961,7 @@
         <v>5003</v>
       </c>
       <c r="X286" t="s">
-        <v>5700</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="287" spans="1:24">
@@ -31970,7 +32102,7 @@
         <v>5006</v>
       </c>
       <c r="X289" t="s">
-        <v>5701</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="290" spans="1:24">
@@ -32543,7 +32675,7 @@
         <v>5468</v>
       </c>
       <c r="X301" t="s">
-        <v>5702</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="302" spans="1:24">
@@ -32875,7 +33007,7 @@
         <v>5025</v>
       </c>
       <c r="X308" t="s">
-        <v>5703</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="309" spans="1:24">
@@ -32972,7 +33104,7 @@
         <v>5027</v>
       </c>
       <c r="X310" t="s">
-        <v>5704</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="311" spans="1:24">
@@ -33298,7 +33430,7 @@
         <v>5034</v>
       </c>
       <c r="X317" t="s">
-        <v>5705</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="318" spans="1:24">
@@ -33856,7 +33988,7 @@
         <v>5468</v>
       </c>
       <c r="X329" t="s">
-        <v>5706</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="330" spans="1:24">
@@ -33903,7 +34035,7 @@
         <v>5047</v>
       </c>
       <c r="X330" t="s">
-        <v>5707</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="331" spans="1:24">
@@ -34050,7 +34182,7 @@
         <v>5050</v>
       </c>
       <c r="X333" t="s">
-        <v>5708</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="334" spans="1:24">
@@ -34097,7 +34229,7 @@
         <v>5051</v>
       </c>
       <c r="X334" t="s">
-        <v>5709</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="335" spans="1:24">
@@ -34150,7 +34282,7 @@
         <v>5468</v>
       </c>
       <c r="X335" t="s">
-        <v>5710</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="336" spans="1:24">
@@ -34250,7 +34382,7 @@
         <v>5468</v>
       </c>
       <c r="X337" t="s">
-        <v>793</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -34341,7 +34473,7 @@
         <v>5056</v>
       </c>
       <c r="X339" t="s">
-        <v>5711</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -34388,7 +34520,7 @@
         <v>5057</v>
       </c>
       <c r="X340" t="s">
-        <v>5712</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="341" spans="1:24">
@@ -34538,7 +34670,7 @@
         <v>5469</v>
       </c>
       <c r="X343" t="s">
-        <v>5713</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="344" spans="1:24">
@@ -34782,7 +34914,7 @@
         <v>5468</v>
       </c>
       <c r="X348" t="s">
-        <v>366</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="349" spans="1:24">
@@ -35008,7 +35140,7 @@
         <v>5070</v>
       </c>
       <c r="X353" t="s">
-        <v>5714</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="354" spans="1:24">
@@ -35061,7 +35193,7 @@
         <v>5469</v>
       </c>
       <c r="X354" t="s">
-        <v>5715</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="355" spans="1:24">
@@ -35120,7 +35252,7 @@
         <v>5468</v>
       </c>
       <c r="X355" t="s">
-        <v>5716</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="356" spans="1:24">
@@ -35167,7 +35299,7 @@
         <v>5073</v>
       </c>
       <c r="X356" t="s">
-        <v>5717</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="357" spans="1:24">
@@ -35434,7 +35566,7 @@
         <v>5079</v>
       </c>
       <c r="X362" t="s">
-        <v>5718</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="363" spans="1:24">
@@ -35666,7 +35798,7 @@
         <v>5084</v>
       </c>
       <c r="X367" t="s">
-        <v>5719</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="368" spans="1:24">
@@ -35866,7 +35998,7 @@
         <v>5468</v>
       </c>
       <c r="X371" t="s">
-        <v>5720</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="372" spans="1:24">
@@ -36307,7 +36439,7 @@
         <v>5097</v>
       </c>
       <c r="X380" t="s">
-        <v>5721</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="381" spans="1:24">
@@ -36401,7 +36533,7 @@
         <v>5099</v>
       </c>
       <c r="X382" t="s">
-        <v>5722</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="383" spans="1:24">
@@ -36874,7 +37006,7 @@
         <v>5109</v>
       </c>
       <c r="X392" t="s">
-        <v>5723</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="393" spans="1:24">
@@ -36930,7 +37062,7 @@
         <v>5468</v>
       </c>
       <c r="X393" t="s">
-        <v>5724</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="394" spans="1:24">
@@ -37130,7 +37262,7 @@
         <v>5114</v>
       </c>
       <c r="X397" t="s">
-        <v>5725</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="398" spans="1:24">
@@ -37324,7 +37456,7 @@
         <v>5469</v>
       </c>
       <c r="X401" t="s">
-        <v>5726</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="402" spans="1:24">
@@ -37574,7 +37706,7 @@
         <v>5123</v>
       </c>
       <c r="X406" t="s">
-        <v>5727</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -37674,7 +37806,7 @@
         <v>5125</v>
       </c>
       <c r="X408" t="s">
-        <v>5728</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="409" spans="1:24">
@@ -37921,7 +38053,7 @@
         <v>5130</v>
       </c>
       <c r="X413" t="s">
-        <v>5729</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="414" spans="1:24">
@@ -37971,7 +38103,7 @@
         <v>5131</v>
       </c>
       <c r="X414" t="s">
-        <v>5730</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="415" spans="1:24">
@@ -38171,7 +38303,7 @@
         <v>5468</v>
       </c>
       <c r="X418" t="s">
-        <v>5731</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="419" spans="1:24">
@@ -38418,7 +38550,7 @@
         <v>5468</v>
       </c>
       <c r="X423" t="s">
-        <v>5732</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="424" spans="1:24">
@@ -38562,7 +38694,7 @@
         <v>5468</v>
       </c>
       <c r="X426" t="s">
-        <v>5733</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="427" spans="1:24">
@@ -38615,7 +38747,7 @@
         <v>5468</v>
       </c>
       <c r="X427" t="s">
-        <v>5734</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="428" spans="1:24">
@@ -38668,7 +38800,7 @@
         <v>5469</v>
       </c>
       <c r="X428" t="s">
-        <v>5735</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="429" spans="1:24">
@@ -38959,7 +39091,7 @@
         <v>5151</v>
       </c>
       <c r="X434" t="s">
-        <v>5736</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="435" spans="1:24">
@@ -39009,7 +39141,7 @@
         <v>5152</v>
       </c>
       <c r="X435" t="s">
-        <v>5737</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="436" spans="1:24">
@@ -39147,7 +39279,7 @@
         <v>5155</v>
       </c>
       <c r="X438" t="s">
-        <v>5738</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="439" spans="1:24">
@@ -39288,7 +39420,7 @@
         <v>5158</v>
       </c>
       <c r="X441" t="s">
-        <v>5739</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="442" spans="1:24">
@@ -39532,7 +39664,7 @@
         <v>5163</v>
       </c>
       <c r="X446" t="s">
-        <v>5740</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="447" spans="1:24">
@@ -40214,7 +40346,7 @@
         <v>5468</v>
       </c>
       <c r="X460" t="s">
-        <v>5741</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="461" spans="1:24">
@@ -40361,7 +40493,7 @@
         <v>5469</v>
       </c>
       <c r="X463" t="s">
-        <v>5742</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="464" spans="1:24">
@@ -40593,7 +40725,7 @@
         <v>5185</v>
       </c>
       <c r="X468" t="s">
-        <v>5743</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="469" spans="1:24">
@@ -40696,7 +40828,7 @@
         <v>5468</v>
       </c>
       <c r="X470" t="s">
-        <v>809</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="471" spans="1:24">
@@ -40837,7 +40969,7 @@
         <v>5190</v>
       </c>
       <c r="X473" t="s">
-        <v>5744</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="474" spans="1:24">
@@ -40887,7 +41019,7 @@
         <v>5191</v>
       </c>
       <c r="X474" t="s">
-        <v>5745</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="475" spans="1:24">
@@ -41263,7 +41395,7 @@
         <v>5199</v>
       </c>
       <c r="X482" t="s">
-        <v>5746</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="483" spans="1:24">
@@ -41316,7 +41448,7 @@
         <v>5468</v>
       </c>
       <c r="X483" t="s">
-        <v>5747</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="484" spans="1:24">
@@ -41366,7 +41498,7 @@
         <v>5201</v>
       </c>
       <c r="X484" t="s">
-        <v>5748</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="485" spans="1:24">
@@ -41554,7 +41686,7 @@
         <v>5469</v>
       </c>
       <c r="X488" t="s">
-        <v>5749</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="489" spans="1:24">
@@ -41598,7 +41730,7 @@
         <v>5206</v>
       </c>
       <c r="X489" t="s">
-        <v>5750</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="490" spans="1:24">
@@ -41645,7 +41777,7 @@
         <v>5207</v>
       </c>
       <c r="X490" t="s">
-        <v>5751</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="491" spans="1:24">
@@ -41927,7 +42059,7 @@
         <v>5213</v>
       </c>
       <c r="X496" t="s">
-        <v>5752</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="497" spans="1:24">
@@ -42247,7 +42379,7 @@
         <v>5468</v>
       </c>
       <c r="X503" t="s">
-        <v>5753</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="504" spans="1:24">
@@ -42294,7 +42426,7 @@
         <v>5221</v>
       </c>
       <c r="X504" t="s">
-        <v>5754</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="505" spans="1:24">
@@ -42350,7 +42482,7 @@
         <v>5468</v>
       </c>
       <c r="X505" t="s">
-        <v>5755</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="506" spans="1:24">
@@ -42406,7 +42538,7 @@
         <v>5468</v>
       </c>
       <c r="X506" t="s">
-        <v>5756</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="507" spans="1:24">
@@ -42553,7 +42685,7 @@
         <v>5468</v>
       </c>
       <c r="X509" t="s">
-        <v>5757</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="510" spans="1:24">
@@ -42606,7 +42738,7 @@
         <v>5468</v>
       </c>
       <c r="X510" t="s">
-        <v>5758</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="511" spans="1:24">
@@ -42706,7 +42838,7 @@
         <v>5468</v>
       </c>
       <c r="X512" t="s">
-        <v>5759</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="513" spans="1:24">
@@ -42759,7 +42891,7 @@
         <v>5468</v>
       </c>
       <c r="X513" t="s">
-        <v>5760</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="514" spans="1:24">
@@ -42868,7 +43000,7 @@
         <v>5232</v>
       </c>
       <c r="X515" t="s">
-        <v>5761</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="516" spans="1:24">
@@ -42924,7 +43056,7 @@
         <v>5468</v>
       </c>
       <c r="X516" t="s">
-        <v>5762</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="517" spans="1:24">
@@ -42974,7 +43106,7 @@
         <v>5234</v>
       </c>
       <c r="X517" t="s">
-        <v>5763</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="518" spans="1:24">
@@ -43030,7 +43162,7 @@
         <v>5468</v>
       </c>
       <c r="X518" t="s">
-        <v>5764</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="519" spans="1:24">
@@ -43136,7 +43268,7 @@
         <v>5468</v>
       </c>
       <c r="X520" t="s">
-        <v>5765</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="521" spans="1:24">
@@ -43189,7 +43321,7 @@
         <v>5238</v>
       </c>
       <c r="X521" t="s">
-        <v>5766</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="522" spans="1:24">
@@ -43236,7 +43368,7 @@
         <v>5239</v>
       </c>
       <c r="X522" t="s">
-        <v>5767</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="523" spans="1:24">
@@ -43486,7 +43618,7 @@
         <v>5468</v>
       </c>
       <c r="X527" t="s">
-        <v>5768</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="528" spans="1:24">
@@ -43624,7 +43756,7 @@
         <v>5468</v>
       </c>
       <c r="X530" t="s">
-        <v>5769</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="531" spans="1:24">
@@ -43718,7 +43850,7 @@
         <v>5249</v>
       </c>
       <c r="X532" t="s">
-        <v>5770</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="533" spans="1:24">
@@ -43771,7 +43903,7 @@
         <v>5468</v>
       </c>
       <c r="X533" t="s">
-        <v>5771</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="534" spans="1:24">
@@ -43821,7 +43953,7 @@
         <v>5251</v>
       </c>
       <c r="X534" t="s">
-        <v>5772</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="535" spans="1:24">
@@ -43874,7 +44006,7 @@
         <v>5468</v>
       </c>
       <c r="X535" t="s">
-        <v>5773</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="536" spans="1:24">
@@ -43930,7 +44062,7 @@
         <v>5468</v>
       </c>
       <c r="X536" t="s">
-        <v>5774</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="537" spans="1:24">
@@ -43983,7 +44115,7 @@
         <v>5468</v>
       </c>
       <c r="X537" t="s">
-        <v>5775</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="538" spans="1:24">
@@ -44033,7 +44165,7 @@
         <v>5255</v>
       </c>
       <c r="X538" t="s">
-        <v>5776</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="539" spans="1:24">
@@ -44086,7 +44218,7 @@
         <v>5468</v>
       </c>
       <c r="X539" t="s">
-        <v>5777</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="540" spans="1:24">
@@ -44136,7 +44268,7 @@
         <v>5257</v>
       </c>
       <c r="X540" t="s">
-        <v>5778</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="541" spans="1:24">
@@ -44239,7 +44371,7 @@
         <v>5259</v>
       </c>
       <c r="X542" t="s">
-        <v>5779</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="543" spans="1:24">
@@ -44389,7 +44521,7 @@
         <v>5468</v>
       </c>
       <c r="X545" t="s">
-        <v>5780</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="546" spans="1:24">
@@ -44439,7 +44571,7 @@
         <v>5263</v>
       </c>
       <c r="X546" t="s">
-        <v>5781</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="547" spans="1:24">
@@ -44492,7 +44624,7 @@
         <v>5468</v>
       </c>
       <c r="X547" t="s">
-        <v>5782</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="548" spans="1:24">
@@ -44633,7 +44765,7 @@
         <v>5267</v>
       </c>
       <c r="X550" t="s">
-        <v>5783</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="551" spans="1:24">
@@ -45056,7 +45188,7 @@
         <v>5468</v>
       </c>
       <c r="X559" t="s">
-        <v>821</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="560" spans="1:24">
@@ -45103,7 +45235,7 @@
         <v>5277</v>
       </c>
       <c r="X560" t="s">
-        <v>5784</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="561" spans="1:24">
@@ -45153,7 +45285,7 @@
         <v>5278</v>
       </c>
       <c r="X561" t="s">
-        <v>5785</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="562" spans="1:24">
@@ -45350,7 +45482,7 @@
         <v>5468</v>
       </c>
       <c r="X565" t="s">
-        <v>822</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="566" spans="1:24">
@@ -45403,7 +45535,7 @@
         <v>5468</v>
       </c>
       <c r="X566" t="s">
-        <v>5786</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="567" spans="1:24">
@@ -45459,7 +45591,7 @@
         <v>5468</v>
       </c>
       <c r="X567" t="s">
-        <v>5787</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="568" spans="1:24">
@@ -45712,7 +45844,7 @@
         <v>5468</v>
       </c>
       <c r="X572" t="s">
-        <v>569</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="573" spans="1:24">
@@ -45806,7 +45938,7 @@
         <v>5291</v>
       </c>
       <c r="X574" t="s">
-        <v>5788</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="575" spans="1:24">
@@ -46003,7 +46135,7 @@
         <v>5295</v>
       </c>
       <c r="X578" t="s">
-        <v>5789</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="579" spans="1:24">
@@ -46050,7 +46182,7 @@
         <v>5296</v>
       </c>
       <c r="X579" t="s">
-        <v>5790</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="580" spans="1:24">
@@ -46482,7 +46614,7 @@
         <v>5305</v>
       </c>
       <c r="X588" t="s">
-        <v>585</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="589" spans="1:24">
@@ -46664,7 +46796,7 @@
         <v>5309</v>
       </c>
       <c r="X592" t="s">
-        <v>5791</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="593" spans="1:24">
@@ -46711,7 +46843,7 @@
         <v>5310</v>
       </c>
       <c r="X593" t="s">
-        <v>5792</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="594" spans="1:24">
@@ -46946,7 +47078,7 @@
         <v>5469</v>
       </c>
       <c r="X598" t="s">
-        <v>5793</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="599" spans="1:24">
@@ -47046,7 +47178,7 @@
         <v>5468</v>
       </c>
       <c r="X600" t="s">
-        <v>5794</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="601" spans="1:24">
@@ -47184,7 +47316,7 @@
         <v>5320</v>
       </c>
       <c r="X603" t="s">
-        <v>5795</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="604" spans="1:24">
@@ -47325,7 +47457,7 @@
         <v>5323</v>
       </c>
       <c r="X606" t="s">
-        <v>5796</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="607" spans="1:24">
@@ -47528,7 +47660,7 @@
         <v>5468</v>
       </c>
       <c r="X610" t="s">
-        <v>5797</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="611" spans="1:24">
@@ -47581,7 +47713,7 @@
         <v>5468</v>
       </c>
       <c r="X611" t="s">
-        <v>5798</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="612" spans="1:24">
@@ -47722,7 +47854,7 @@
         <v>5330</v>
       </c>
       <c r="X614" t="s">
-        <v>5799</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="615" spans="1:24">
@@ -47816,7 +47948,7 @@
         <v>5332</v>
       </c>
       <c r="X616" t="s">
-        <v>2867</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="617" spans="1:24">
@@ -47919,7 +48051,7 @@
         <v>5469</v>
       </c>
       <c r="X618" t="s">
-        <v>5800</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="619" spans="1:24">
@@ -48013,7 +48145,7 @@
         <v>5336</v>
       </c>
       <c r="X620" t="s">
-        <v>5801</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="621" spans="1:24">
@@ -48286,7 +48418,7 @@
         <v>5468</v>
       </c>
       <c r="X626" t="s">
-        <v>5802</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="627" spans="1:24">
@@ -48577,7 +48709,7 @@
         <v>5468</v>
       </c>
       <c r="X632" t="s">
-        <v>5803</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="633" spans="1:24">
@@ -48630,7 +48762,7 @@
         <v>5349</v>
       </c>
       <c r="X633" t="s">
-        <v>5804</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="634" spans="1:24">
@@ -48953,7 +49085,7 @@
         <v>5468</v>
       </c>
       <c r="X640" t="s">
-        <v>5805</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="641" spans="1:24">
@@ -49047,7 +49179,7 @@
         <v>5358</v>
       </c>
       <c r="X642" t="s">
-        <v>5806</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="643" spans="1:24">
@@ -49244,7 +49376,7 @@
         <v>5362</v>
       </c>
       <c r="X646" t="s">
-        <v>643</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="647" spans="1:24">
@@ -49294,7 +49426,7 @@
         <v>5363</v>
       </c>
       <c r="X647" t="s">
-        <v>5807</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="648" spans="1:24">
@@ -49702,7 +49834,7 @@
         <v>5372</v>
       </c>
       <c r="X656" t="s">
-        <v>5808</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="657" spans="1:24">
@@ -49799,7 +49931,7 @@
         <v>5374</v>
       </c>
       <c r="X658" t="s">
-        <v>5809</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="659" spans="1:24">
@@ -49896,7 +50028,7 @@
         <v>5376</v>
       </c>
       <c r="X660" t="s">
-        <v>5810</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="661" spans="1:24">
@@ -49952,7 +50084,7 @@
         <v>5468</v>
       </c>
       <c r="X661" t="s">
-        <v>5811</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="662" spans="1:24">
@@ -49999,7 +50131,7 @@
         <v>5378</v>
       </c>
       <c r="X662" t="s">
-        <v>659</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="663" spans="1:24">
@@ -50096,7 +50228,7 @@
         <v>5468</v>
       </c>
       <c r="X664" t="s">
-        <v>661</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="665" spans="1:24">
@@ -50146,7 +50278,7 @@
         <v>5381</v>
       </c>
       <c r="X665" t="s">
-        <v>5812</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="666" spans="1:24">
@@ -50199,7 +50331,7 @@
         <v>5468</v>
       </c>
       <c r="X666" t="s">
-        <v>5714</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="667" spans="1:24">
@@ -50252,7 +50384,7 @@
         <v>5468</v>
       </c>
       <c r="X667" t="s">
-        <v>5813</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="668" spans="1:24">
@@ -50305,7 +50437,7 @@
         <v>5468</v>
       </c>
       <c r="X668" t="s">
-        <v>5814</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="669" spans="1:24">
@@ -50352,7 +50484,7 @@
         <v>5384</v>
       </c>
       <c r="X669" t="s">
-        <v>5815</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="670" spans="1:24">
@@ -50455,7 +50587,7 @@
         <v>5468</v>
       </c>
       <c r="X671" t="s">
-        <v>5816</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="672" spans="1:24">
@@ -50543,7 +50675,7 @@
         <v>5388</v>
       </c>
       <c r="X673" t="s">
-        <v>5817</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="674" spans="1:24">
@@ -50634,7 +50766,7 @@
         <v>5390</v>
       </c>
       <c r="X675" t="s">
-        <v>5818</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="676" spans="1:24">
@@ -50687,7 +50819,7 @@
         <v>5391</v>
       </c>
       <c r="X676" t="s">
-        <v>5819</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="677" spans="1:24">
@@ -50784,7 +50916,7 @@
         <v>5469</v>
       </c>
       <c r="X678" t="s">
-        <v>5820</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="679" spans="1:24">
@@ -50837,7 +50969,7 @@
         <v>5468</v>
       </c>
       <c r="X679" t="s">
-        <v>5821</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="680" spans="1:24">
@@ -50937,7 +51069,7 @@
         <v>5469</v>
       </c>
       <c r="X681" t="s">
-        <v>5822</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="682" spans="1:24">
@@ -51028,7 +51160,7 @@
         <v>5398</v>
       </c>
       <c r="X683" t="s">
-        <v>5823</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="684" spans="1:24">
@@ -51187,7 +51319,7 @@
         <v>5468</v>
       </c>
       <c r="X686" t="s">
-        <v>5824</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="687" spans="1:24">
@@ -51234,7 +51366,7 @@
         <v>5402</v>
       </c>
       <c r="X687" t="s">
-        <v>5825</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="688" spans="1:24">
@@ -51337,7 +51469,7 @@
         <v>5404</v>
       </c>
       <c r="X689" t="s">
-        <v>5826</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="690" spans="1:24">
@@ -51475,7 +51607,7 @@
         <v>5407</v>
       </c>
       <c r="X692" t="s">
-        <v>689</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="693" spans="1:24">
@@ -51566,7 +51698,7 @@
         <v>5409</v>
       </c>
       <c r="X694" t="s">
-        <v>5827</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="695" spans="1:24">
@@ -51613,7 +51745,7 @@
         <v>5410</v>
       </c>
       <c r="X695" t="s">
-        <v>5828</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="696" spans="1:24">
@@ -51801,7 +51933,7 @@
         <v>5414</v>
       </c>
       <c r="X699" t="s">
-        <v>5829</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="700" spans="1:24">
@@ -52042,7 +52174,7 @@
         <v>5419</v>
       </c>
       <c r="X704" t="s">
-        <v>5830</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="705" spans="1:24">
@@ -52089,7 +52221,7 @@
         <v>5420</v>
       </c>
       <c r="X705" t="s">
-        <v>701</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="706" spans="1:24">
@@ -52380,7 +52512,7 @@
         <v>5426</v>
       </c>
       <c r="X711" t="s">
-        <v>5831</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="712" spans="1:24">
@@ -52427,7 +52559,7 @@
         <v>5427</v>
       </c>
       <c r="X712" t="s">
-        <v>5832</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="713" spans="1:24">
@@ -52912,7 +53044,7 @@
         <v>5437</v>
       </c>
       <c r="X722" t="s">
-        <v>5833</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="723" spans="1:24">
@@ -53097,7 +53229,7 @@
         <v>5468</v>
       </c>
       <c r="X726" t="s">
-        <v>722</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="727" spans="1:24">
@@ -53200,7 +53332,7 @@
         <v>5468</v>
       </c>
       <c r="X728" t="s">
-        <v>5834</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="729" spans="1:24">
@@ -53526,7 +53658,7 @@
         <v>5450</v>
       </c>
       <c r="X735" t="s">
-        <v>731</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="736" spans="1:24">
@@ -53573,7 +53705,7 @@
         <v>5451</v>
       </c>
       <c r="X736" t="s">
-        <v>732</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="737" spans="1:24">
@@ -53620,7 +53752,7 @@
         <v>5452</v>
       </c>
       <c r="X737" t="s">
-        <v>733</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="738" spans="1:24">
@@ -53799,7 +53931,7 @@
         <v>5456</v>
       </c>
       <c r="X741" t="s">
-        <v>5835</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="742" spans="1:24">
@@ -53943,7 +54075,7 @@
         <v>5469</v>
       </c>
       <c r="X744" t="s">
-        <v>5836</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="745" spans="1:24">
@@ -54090,7 +54222,7 @@
         <v>5468</v>
       </c>
       <c r="X747" t="s">
-        <v>5837</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="748" spans="1:24">
@@ -54143,7 +54275,7 @@
         <v>5468</v>
       </c>
       <c r="X748" t="s">
-        <v>5838</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="749" spans="1:24">
@@ -54193,7 +54325,7 @@
         <v>5464</v>
       </c>
       <c r="X749" t="s">
-        <v>5839</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="750" spans="1:24">

--- a/simple.xlsx
+++ b/simple.xlsx
@@ -2284,7 +2284,7 @@
     <t>Batería de Roldán</t>
   </si>
   <si>
-    <t>Canales romanos de Cabrera</t>
+    <t xml:space="preserve">Canales romanos de La Cabrera </t>
   </si>
   <si>
     <t>Capilla de San José (Sevilla)</t>
